--- a/StructureDefinition-BCPatientBusinessParameters.xlsx
+++ b/StructureDefinition-BCPatientBusinessParameters.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="158">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T22:21:25+00:00</t>
+    <t>2021-10-22T16:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Parameters</t>
+    <t>http://moh.fhir.org/moh-hcim/StructureDefinition/BCMetadataParameters</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -335,6 +335,9 @@
     <t>Parameters.parameter</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
@@ -349,7 +352,7 @@
 </t>
   </si>
   <si>
-    <t>The specific parameters to specify BC Patient Business Parameters.</t>
+    <t>The specific parameters to specify BC Metadata.</t>
   </si>
   <si>
     <t>open</t>
@@ -473,6 +476,16 @@
   </si>
   <si>
     <t>Only one level of nested parameters is allowed.</t>
+  </si>
+  <si>
+    <t>MessageID</t>
+  </si>
+  <si>
+    <t>MessageDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
   </si>
   <si>
     <t>Patient</t>
@@ -794,7 +807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -804,7 +817,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.4609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -830,7 +843,7 @@
     <col min="25" max="25" width="35.71875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="63.2578125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="45.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1488,7 +1501,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>69</v>
@@ -1503,13 +1516,13 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1548,16 +1561,16 @@
         <v>67</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>103</v>
@@ -1572,7 +1585,7 @@
         <v>67</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>67</v>
@@ -1583,7 +1596,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1609,10 +1622,10 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1663,7 +1676,7 @@
         <v>67</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>68</v>
@@ -1686,11 +1699,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1709,16 +1722,16 @@
         <v>67</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1768,7 +1781,7 @@
         <v>67</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>68</v>
@@ -1780,7 +1793,7 @@
         <v>67</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>67</v>
@@ -1791,11 +1804,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1814,19 +1827,19 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>67</v>
@@ -1875,7 +1888,7 @@
         <v>67</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>68</v>
@@ -1887,18 +1900,18 @@
         <v>67</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1924,10 +1937,10 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1978,7 +1991,7 @@
         <v>67</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2001,7 +2014,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2024,13 +2037,13 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2081,7 +2094,7 @@
         <v>67</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>68</v>
@@ -2090,7 +2103,7 @@
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>87</v>
@@ -2104,7 +2117,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2127,16 +2140,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2186,16 +2199,16 @@
         <v>67</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>67</v>
@@ -2209,7 +2222,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2235,13 +2248,13 @@
         <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2291,7 +2304,7 @@
         <v>67</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>68</v>
@@ -2317,7 +2330,7 @@
         <v>103</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>67</v>
@@ -2339,13 +2352,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2408,7 +2421,7 @@
         <v>67</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>67</v>
@@ -2419,7 +2432,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2445,10 +2458,10 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2499,7 +2512,7 @@
         <v>67</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>68</v>
@@ -2522,11 +2535,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2545,16 +2558,16 @@
         <v>67</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2604,7 +2617,7 @@
         <v>67</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>68</v>
@@ -2616,7 +2629,7 @@
         <v>67</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>67</v>
@@ -2627,11 +2640,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2650,19 +2663,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>67</v>
@@ -2711,7 +2724,7 @@
         <v>67</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>68</v>
@@ -2723,18 +2736,18 @@
         <v>67</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2760,10 +2773,10 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2775,7 +2788,7 @@
         <v>67</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>67</v>
@@ -2814,7 +2827,7 @@
         <v>67</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -2835,9 +2848,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2845,13 +2858,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>67</v>
@@ -2860,13 +2873,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2917,7 +2930,7 @@
         <v>67</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>68</v>
@@ -2926,7 +2939,7 @@
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>87</v>
@@ -2938,41 +2951,41 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3022,30 +3035,30 @@
         <v>67</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="AI21" t="s" s="2">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>153</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3056,7 +3069,7 @@
         <v>68</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>67</v>
@@ -3071,13 +3084,13 @@
         <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3127,7 +3140,7 @@
         <v>67</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>68</v>
@@ -3148,8 +3161,1680 @@
         <v>67</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK22">
+  <autoFilter ref="A1:AK38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3159,7 +4844,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BCPatientBusinessParameters.xlsx
+++ b/StructureDefinition-BCPatientBusinessParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-22T16:49:58+00:00</t>
+    <t>2021-10-26T17:35:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BCPatientBusinessParameters.xlsx
+++ b/StructureDefinition-BCPatientBusinessParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T17:35:26+00:00</t>
+    <t>2021-10-26T20:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BCPatientBusinessParameters.xlsx
+++ b/StructureDefinition-BCPatientBusinessParameters.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="159">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-26T20:20:15+00:00</t>
+    <t>2021-10-27T20:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -486,6 +486,9 @@
   <si>
     <t xml:space="preserve">date
 </t>
+  </si>
+  <si>
+    <t>MessageRequestID</t>
   </si>
   <si>
     <t>Patient</t>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -817,7 +820,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.55859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4009,7 +4012,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>75</v>
@@ -4520,7 +4523,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>134</v>
       </c>
@@ -4533,10 +4536,10 @@
         <v>68</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>67</v>
@@ -4545,7 +4548,7 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>136</v>
@@ -4623,38 +4626,38 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>139</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>143</v>
@@ -4716,16 +4719,16 @@
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>157</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -4741,7 +4744,7 @@
         <v>68</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>67</v>
@@ -4833,8 +4836,844 @@
         <v>67</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK38">
+  <autoFilter ref="A1:AK46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4844,7 +5683,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BCPatientBusinessParameters.xlsx
+++ b/StructureDefinition-BCPatientBusinessParameters.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:25:30+00:00</t>
+    <t>2021-10-28T17:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,7 +335,7 @@
     <t>Parameters.parameter</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>MessageRequestID</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Enterer</t>
   </si>
   <si>
     <t>Patient</t>
@@ -810,7 +819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5359,7 +5368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>134</v>
       </c>
@@ -5369,13 +5378,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>67</v>
@@ -5384,7 +5393,7 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>136</v>
@@ -5462,38 +5471,38 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>139</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>143</v>
@@ -5555,16 +5564,16 @@
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>158</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -5580,7 +5589,7 @@
         <v>68</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>67</v>
@@ -5672,8 +5681,2516 @@
         <v>67</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK46">
+  <autoFilter ref="A1:AK70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5683,7 +8200,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
